--- a/biology/Botanique/Dendrolobium/Dendrolobium.xlsx
+++ b/biology/Botanique/Dendrolobium/Dendrolobium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendrolobium est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire de régions tropicales de l'Ancien Monde : Afrique orientale, Asie du Sud et du Sud-Est, Australasie, qui comprend environ une vingtaine d'espèces acceptées.
-Ce sont des arbustes ou de petits arbres, aux feuilles trifoliées, rarement unifoliées, et aux fleurs blanches ou jaune clair[2].
-Une espèce, Dendrolobium dispermum, est endémique de Taïwan[3].
+Ce sont des arbustes ou de petits arbres, aux feuilles trifoliées, rarement unifoliées, et aux fleurs blanches ou jaune clair.
+Une espèce, Dendrolobium dispermum, est endémique de Taïwan.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Dendrolobium », dérive de deux racines grecques : δένδρον, (déndron ), « arbre, bois », et λοβός (lobós), « lobe, capsule, gousse », en référence aux gousses ligneuses[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Dendrolobium », dérive de deux racines grecques : δένδρον, (déndron ), « arbre, bois », et λοβός (lobós), « lobe, capsule, gousse », en référence aux gousses ligneuses.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (6 novembre 2018)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (6 novembre 2018) :
 Dendrolobium arbuscula (Domin) Ohashi
 Dendrolobium baccatum (Schindl.) Schindl.
 Dendrolobium cheelii (C.A.Gardner) Pedley
